--- a/DragPrediction/Data/%F.xlsx
+++ b/DragPrediction/Data/%F.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12810" windowHeight="6675"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5730" windowHeight="6675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Case #</t>
   </si>
@@ -194,6 +194,12 @@
   <si>
     <t>AVG</t>
   </si>
+  <si>
+    <t>Corrected Area Per Pnx</t>
+  </si>
+  <si>
+    <t>Results of Corrected Area</t>
+  </si>
 </sst>
 </file>
 
@@ -266,10 +272,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
@@ -1378,6 +1384,325 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$13:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.6723548745127186</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8644881451713662</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3347569127024794</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.188697868999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1116582685792462</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7039007940000008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2139-4200-A801-37382E043E13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="499502728"/>
+        <c:axId val="499505024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="499502728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="499505024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="499505024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="499502728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1458,6 +1783,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2490,20 +2855,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>138111</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2524,16 +3405,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>409576</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2549,6 +3430,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2821,10 +3732,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2839,15 +3750,15 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -2945,7 +3856,7 @@
         <v>1.8870850501267067</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:R4" si="0">(C3-$B$3)^2</f>
+        <f t="shared" ref="K3:R3" si="0">(C3-$B$3)^2</f>
         <v>26.749876967616327</v>
       </c>
       <c r="L3">
@@ -3017,7 +3928,7 @@
         <v>40.50846935690484</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="L4:R4" si="1">(E4-$B$4)^2</f>
+        <f t="shared" ref="M4:Q4" si="1">(E4-$B$4)^2</f>
         <v>82.037316836641907</v>
       </c>
       <c r="N4">
@@ -3298,7 +4209,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C9">
@@ -3364,6 +4275,78 @@
       <c r="R9">
         <f t="shared" si="7"/>
         <v>35.209978219468255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>9.8827949999999998E-3</v>
+      </c>
+      <c r="F11">
+        <v>1.235294118E-2</v>
+      </c>
+      <c r="G11">
+        <v>1.55555556E-2</v>
+      </c>
+      <c r="H11">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="I11">
+        <v>2.8965517239999999E-2</v>
+      </c>
+      <c r="J11">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f>E11*D2</f>
+        <v>1.68007515</v>
+      </c>
+      <c r="F12">
+        <f>F11*E2</f>
+        <v>1.68000000048</v>
+      </c>
+      <c r="G12">
+        <f>G11*F2</f>
+        <v>1.6800000047999999</v>
+      </c>
+      <c r="H12">
+        <f>H11*G2</f>
+        <v>1.6800000000000002</v>
+      </c>
+      <c r="I12">
+        <f>I11*H2</f>
+        <v>1.6799999999199999</v>
+      </c>
+      <c r="J12">
+        <f>J11*I2</f>
+        <v>1.6800000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>9.6723548745127186</v>
+      </c>
+      <c r="F13">
+        <v>9.8644881451713662</v>
+      </c>
+      <c r="G13">
+        <v>8.3347569127024794</v>
+      </c>
+      <c r="H13">
+        <v>10.188697868999999</v>
+      </c>
+      <c r="I13">
+        <v>8.1116582685792462</v>
+      </c>
+      <c r="J13">
+        <v>9.7039007940000008</v>
       </c>
     </row>
   </sheetData>

--- a/DragPrediction/Data/%F.xlsx
+++ b/DragPrediction/Data/%F.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5730" windowHeight="6675"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>Case #</t>
   </si>
@@ -195,17 +195,123 @@
     <t>AVG</t>
   </si>
   <si>
-    <t>Corrected Area Per Pnx</t>
+    <t>Isolation</t>
   </si>
   <si>
-    <t>Results of Corrected Area</t>
+    <r>
+      <t>Mean ∆F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Err</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/(6-1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(10-1)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Delta_D</t>
+  </si>
+  <si>
+    <r>
+      <t>Mean ∆F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Err</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">STDEV </t>
+  </si>
+  <si>
+    <t>Leading3VP_0.5L</t>
+  </si>
+  <si>
+    <t>Middle3VP_0.5L</t>
+  </si>
+  <si>
+    <t>Trailing3VP_0.5L</t>
+  </si>
+  <si>
+    <t>Leading3VP_0.75L</t>
+  </si>
+  <si>
+    <t>Middle3VP_0.75L</t>
+  </si>
+  <si>
+    <t>Trailing3VP_0.75L</t>
+  </si>
+  <si>
+    <t>Leading3VP_1L</t>
+  </si>
+  <si>
+    <t>Middle3VP_1L</t>
+  </si>
+  <si>
+    <t>Trailing3VP_1L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,13 +344,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -269,13 +407,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
@@ -308,46 +449,28 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.1740730648104395E-2"/>
+          <c:y val="3.1323284321474208E-2"/>
+          <c:w val="0.9198270146032369"/>
+          <c:h val="0.84223513270691253"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Uniform Grid</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -374,29 +497,32 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$J$2</c:f>
+              <c:f>Sheet1!$D$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>1716</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>170</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>108</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
@@ -404,30 +530,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$3:$R$3</c:f>
+              <c:f>Sheet1!$M$38:$T$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.0120917842463399E-2</c:v>
+                  <c:v>2.5500211631114129</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0725996227025094</c:v>
+                  <c:v>2.6902831228565116</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2854410871637558</c:v>
+                  <c:v>3.0338551715151172</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.651326220665521</c:v>
+                  <c:v>3.0514691884803176</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.67065592683311</c:v>
+                  <c:v>2.8164173573453266</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45.45520371194899</c:v>
+                  <c:v>3.8136714459771439</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51.011885341037974</c:v>
+                  <c:v>3.5503950915300115</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9581992086952527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -435,13 +564,16 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3C5F-4F62-8F15-D422858995E7}"/>
+              <c16:uniqueId val="{00000000-6656-4DD5-8682-C8E34E6A83F4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Discrete Points</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -468,60 +600,24 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$J$2</c:f>
+              <c:f>Sheet1!$C$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$5:$R$5</c:f>
+              <c:f>Sheet1!$L$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.4379912477090232</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.3270896351507542</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.922496318288102</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42.059393295494921</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>48.020164659328927</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>80.263491863250195</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>89.740816762203352</c:v>
+                  <c:v>3.5525091955108974</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -529,101 +625,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3C5F-4F62-8F15-D422858995E7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$J$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$L$7:$R$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.5312799895370566</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.4233172373884084</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23.437113570388441</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>56.811141925603245</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>65.223077356606922</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>104.02402413412615</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>116.6443436927896</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3C5F-4F62-8F15-D422858995E7}"/>
+              <c16:uniqueId val="{00000001-6656-4DD5-8682-C8E34E6A83F4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -635,11 +637,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="565523216"/>
-        <c:axId val="565523544"/>
+        <c:axId val="564119480"/>
+        <c:axId val="605495440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="565523216"/>
+        <c:axId val="564119480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -659,6 +661,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -696,12 +754,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565523544"/>
+        <c:crossAx val="605495440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="565523544"/>
+        <c:axId val="605495440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -721,6 +779,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>STDEV</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -758,7 +872,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565523216"/>
+        <c:crossAx val="564119480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -770,38 +884,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -888,7 +970,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -919,29 +1001,32 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$J$2</c:f>
+              <c:f>Sheet1!$D$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>1716</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>170</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>108</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
@@ -949,38 +1034,41 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$8:$R$8</c:f>
+              <c:f>Sheet1!$M$37:$T$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>15.828547498543134</c:v>
+                  <c:v>7.5026079323160841</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.309009729283552</c:v>
+                  <c:v>8.2376232811265844</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72.315939783353841</c:v>
+                  <c:v>10.204277201729022</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>116.61851023711046</c:v>
+                  <c:v>10.311464208244727</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>143.58650185550763</c:v>
+                  <c:v>8.9322067307560324</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>190.84020140425298</c:v>
+                  <c:v>15.544089897861401</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>214.36618524148912</c:v>
+                  <c:v>13.605305305960398</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.667340975715724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E3E8-42B0-BAEE-61C5491B1046}"/>
+              <c16:uniqueId val="{00000000-4226-486F-93F1-D598F476D7BB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1013,162 +1101,32 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$J$2</c:f>
+              <c:f>Sheet1!$C$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$R$6</c:f>
+              <c:f>Sheet1!$L$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>22.982708169348868</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>58.092556261629241</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>89.286280902575953</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>142.70896862963247</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>173.50811684499058</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>227.81090022957898</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>254.79616481651948</c:v>
+                  <c:v>13.620321584189485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E3E8-42B0-BAEE-61C5491B1046}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$J$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$L$4:$R$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>40.50846935690484</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>82.037316836641907</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>126.9929511431905</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>190.92288903916878</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>236.11327652227934</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>297.0046960388546</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>329.73995073000816</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E3E8-42B0-BAEE-61C5491B1046}"/>
+              <c16:uniqueId val="{00000001-4226-486F-93F1-D598F476D7BB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1180,11 +1138,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="565523216"/>
-        <c:axId val="565523544"/>
+        <c:axId val="628446528"/>
+        <c:axId val="628446856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="565523216"/>
+        <c:axId val="628446528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1241,12 +1199,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565523544"/>
+        <c:crossAx val="628446856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="565523544"/>
+        <c:axId val="628446856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1303,358 +1261,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565523216"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$J$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$13:$J$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>9.6723548745127186</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.8644881451713662</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.3347569127024794</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.188697868999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.1116582685792462</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.7039007940000008</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2139-4200-A801-37382E043E13}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="499502728"/>
-        <c:axId val="499505024"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="499502728"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="499505024"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="499505024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="499502728"/>
+        <c:crossAx val="628446528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1783,46 +1390,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2855,540 +2422,24 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>291355</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3405,23 +2456,21 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>268939</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>178172</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3430,36 +2479,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3732,34 +2751,39 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="1"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -3767,8 +2791,10 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3776,582 +2802,2545 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1">
+        <v>1716</v>
+      </c>
+      <c r="E2" s="1">
         <v>170</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>136</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>108</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>80</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>58</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>40</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>24</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="T2" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B3">
-        <v>9.0293455705108503</v>
+        <v>14.899673562013405</v>
       </c>
       <c r="C3">
-        <v>3.8573172481196893</v>
+        <v>4.4913781896292324</v>
       </c>
       <c r="D3">
-        <v>9.1299483430495005</v>
+        <v>15.159224779106264</v>
       </c>
       <c r="E3">
-        <v>7.9936817144733281</v>
+        <v>12.929382942954899</v>
       </c>
       <c r="F3">
-        <v>6.5222673732533822</v>
+        <v>13.085980820132997</v>
       </c>
       <c r="G3">
-        <v>4.3762470092652883</v>
+        <v>13.243528179077977</v>
       </c>
       <c r="H3">
-        <v>3.9627238235444251</v>
+        <v>11.717198393477704</v>
       </c>
       <c r="I3">
-        <v>2.2872981283795668</v>
+        <v>13.569628442999997</v>
       </c>
       <c r="J3">
-        <v>1.8870850501267067</v>
+        <v>11.126078908435703</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:R3" si="0">(C3-$B$3)^2</f>
-        <v>26.749876967616327</v>
+        <v>12.83524809</v>
       </c>
       <c r="L3">
-        <f t="shared" si="0"/>
-        <v>1.0120917842463399E-2</v>
+        <f t="shared" ref="L3:T3" si="0">(C3-$B$3)^2</f>
+        <v>108.33261255879377</v>
       </c>
       <c r="M3">
         <f t="shared" si="0"/>
-        <v>1.0725996227025094</v>
+        <v>6.73668342943846E-2</v>
       </c>
       <c r="N3">
         <f t="shared" si="0"/>
-        <v>6.2854410871637558</v>
+        <v>3.8820451235499513</v>
       </c>
       <c r="O3">
         <f t="shared" si="0"/>
-        <v>21.651326220665521</v>
+        <v>3.2894813619496701</v>
       </c>
       <c r="P3">
         <f t="shared" si="0"/>
-        <v>25.67065592683311</v>
+        <v>2.7428175294183346</v>
       </c>
       <c r="Q3">
         <f t="shared" si="0"/>
-        <v>45.45520371194899</v>
+        <v>10.12814819834634</v>
       </c>
       <c r="R3">
         <f t="shared" si="0"/>
-        <v>51.011885341037974</v>
+        <v>1.7690200186113887</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>14.240016609510212</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>4.2618525294977676</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>20.54850493765602</v>
+        <v>9.0293455705108503</v>
       </c>
       <c r="C4">
-        <v>4.7926850641144094</v>
+        <v>3.8573172481196893</v>
       </c>
       <c r="D4">
-        <v>14.183878526239177</v>
+        <v>10.809510499590917</v>
       </c>
       <c r="E4">
-        <v>11.491059556278227</v>
+        <v>9.1299483430495005</v>
       </c>
       <c r="F4">
-        <v>9.2793900148597093</v>
+        <v>9.6723548745127186</v>
       </c>
       <c r="G4">
-        <v>6.7310200348537448</v>
+        <v>9.7431401501686352</v>
       </c>
       <c r="H4">
-        <v>5.1825270474506793</v>
+        <v>8.2738420018921897</v>
       </c>
       <c r="I4">
-        <v>3.3146807526744797</v>
+        <v>9.7855016867117453</v>
       </c>
       <c r="J4">
-        <v>2.3897618443136781</v>
+        <v>7.6878631537202118</v>
       </c>
       <c r="K4">
+        <v>9.1334916426132615</v>
+      </c>
+      <c r="L4">
         <f>(C4-$B$4)^2</f>
-        <v>248.24585988748879</v>
-      </c>
-      <c r="L4">
-        <f>(D4-$B$4)^2</f>
-        <v>40.50846935690484</v>
+        <v>26.749876967616327</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:Q4" si="1">(E4-$B$4)^2</f>
-        <v>82.037316836641907</v>
+        <f t="shared" ref="M4:T4" si="1">(D4-$B$4)^2</f>
+        <v>3.1689871747266407</v>
       </c>
       <c r="N4">
         <f t="shared" si="1"/>
-        <v>126.9929511431905</v>
+        <v>1.0120917842463399E-2</v>
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>190.92288903916878</v>
+        <v>0.41346096503296709</v>
       </c>
       <c r="P4">
         <f t="shared" si="1"/>
-        <v>236.11327652227934</v>
+        <v>0.50950270194883385</v>
       </c>
       <c r="Q4">
         <f t="shared" si="1"/>
-        <v>297.0046960388546</v>
+        <v>0.5707856421955313</v>
       </c>
       <c r="R4">
-        <f>(J4-$B$4)^2</f>
-        <v>329.73995073000816</v>
+        <f t="shared" si="1"/>
+        <v>0.57177207206802139</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="1"/>
+        <v>1.7995750745584524</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="1"/>
+        <v>1.0846404334360637E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>11.645749305326415</v>
+        <v>20.54850493765602</v>
       </c>
       <c r="C5">
-        <v>4.22337281405881</v>
+        <v>4.7926850641144094</v>
       </c>
       <c r="D5">
-        <v>10.983940233381173</v>
+        <v>16.584297970638001</v>
       </c>
       <c r="E5">
-        <v>9.3377004247455133</v>
+        <v>14.183878526239177</v>
       </c>
       <c r="F5">
-        <v>7.6554490261133203</v>
+        <v>13.904182063096643</v>
       </c>
       <c r="G5">
-        <v>5.1604279335287986</v>
+        <v>14.034449610480424</v>
       </c>
       <c r="H5">
-        <v>4.7160909689198558</v>
+        <v>12.819526787738335</v>
       </c>
       <c r="I5">
-        <v>2.686759861016851</v>
+        <v>13.324976615999997</v>
       </c>
       <c r="J5">
-        <v>2.1725863297303896</v>
+        <v>11.755160904267816</v>
       </c>
       <c r="K5">
+        <v>12.288800580000002</v>
+      </c>
+      <c r="L5">
         <f>(C5-$B$5)^2</f>
-        <v>55.091672778122003</v>
-      </c>
-      <c r="L5">
-        <f>(D5-$B$5)^2</f>
-        <v>0.4379912477090232</v>
+        <v>248.24585988748879</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:R5" si="2">(E5-$B$5)^2</f>
-        <v>5.3270896351507542</v>
+        <f t="shared" ref="M5:T5" si="2">(D5-$B$5)^2</f>
+        <v>15.714936877354196</v>
       </c>
       <c r="N5">
         <f t="shared" si="2"/>
-        <v>15.922496318288102</v>
+        <v>40.50846935690484</v>
       </c>
       <c r="O5">
         <f t="shared" si="2"/>
-        <v>42.059393295494921</v>
+        <v>44.147026461392983</v>
       </c>
       <c r="P5">
         <f t="shared" si="2"/>
-        <v>48.020164659328927</v>
+        <v>42.43291680550476</v>
       </c>
       <c r="Q5">
         <f t="shared" si="2"/>
-        <v>80.263491863250195</v>
+        <v>59.737103241905004</v>
       </c>
       <c r="R5">
         <f t="shared" si="2"/>
-        <v>89.740816762203352</v>
+        <v>52.179361413766678</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="2"/>
+        <v>77.322899289523917</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="2"/>
+        <v>68.222716075881806</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>18.334254253001866</v>
+        <v>11.645749305326415</v>
       </c>
       <c r="C6">
-        <v>4.3221168828152985</v>
+        <v>4.22337281405881</v>
       </c>
       <c r="D6">
-        <v>13.540225866628996</v>
+        <v>12.947732440168551</v>
       </c>
       <c r="E6">
-        <v>10.712406953191325</v>
+        <v>10.983940233381173</v>
       </c>
       <c r="F6">
-        <v>8.8851124452726609</v>
+        <v>11.298617513942071</v>
       </c>
       <c r="G6">
-        <v>6.3881683404683187</v>
+        <v>11.578348730955163</v>
       </c>
       <c r="H6">
-        <v>5.1620062730634917</v>
+        <v>9.828264332525201</v>
       </c>
       <c r="I6">
-        <v>3.2408484004588769</v>
+        <v>12.125706495000001</v>
       </c>
       <c r="J6">
-        <v>2.3719184334383807</v>
+        <v>9.5283065954083401</v>
       </c>
       <c r="K6">
+        <v>11.172025452000002</v>
+      </c>
+      <c r="L6">
         <f>(C6-$B$6)^2</f>
-        <v>196.33999368097898</v>
-      </c>
-      <c r="L6">
-        <f>(D6-$B$6)^2</f>
-        <v>22.982708169348868</v>
+        <v>55.091672778122003</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:R6" si="3">(E6-$B$6)^2</f>
-        <v>58.092556261629241</v>
+        <f t="shared" ref="M6:T6" si="3">(D6-$B$6)^2</f>
+        <v>1.6951600834133547</v>
       </c>
       <c r="N6">
         <f t="shared" si="3"/>
-        <v>89.286280902575953</v>
+        <v>0.4379912477090232</v>
       </c>
       <c r="O6">
         <f t="shared" si="3"/>
-        <v>142.70896862963247</v>
+        <v>0.12050048058970367</v>
       </c>
       <c r="P6">
         <f t="shared" si="3"/>
-        <v>173.50811684499058</v>
+        <v>4.5428374255746745E-3</v>
       </c>
       <c r="Q6">
         <f t="shared" si="3"/>
-        <v>227.81090022957898</v>
+        <v>3.3032516263582301</v>
       </c>
       <c r="R6">
         <f t="shared" si="3"/>
-        <v>254.79616481651948</v>
+        <v>0.23035890391936653</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="3"/>
+        <v>4.4835636297852011</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="3"/>
+        <v>0.22441428921042547</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>13.121509375885239</v>
+        <v>18.334254253001866</v>
       </c>
       <c r="C7">
-        <v>4.3779332427850663</v>
+        <v>4.3221168828152985</v>
       </c>
       <c r="D7">
-        <v>11.884060391265244</v>
+        <v>15.93762799662956</v>
       </c>
       <c r="E7">
-        <v>10.051767165635589</v>
+        <v>13.540225866628996</v>
       </c>
       <c r="F7">
-        <v>8.2803201035691441</v>
+        <v>12.962012413361505</v>
       </c>
       <c r="G7">
-        <v>5.5841927495517503</v>
+        <v>13.43813146089829</v>
       </c>
       <c r="H7">
-        <v>5.0454288069082969</v>
+        <v>12.166550499206011</v>
       </c>
       <c r="I7">
-        <v>2.922292536631053</v>
+        <v>13.272214935000001</v>
       </c>
       <c r="J7">
-        <v>2.3213082808690171</v>
+        <v>11.493322360832009</v>
       </c>
       <c r="K7">
+        <v>12.197044944000003</v>
+      </c>
+      <c r="L7">
         <f>(C7-$B$7)^2</f>
-        <v>76.450123595318985</v>
-      </c>
-      <c r="L7">
-        <f t="shared" ref="L7:R7" si="4">(D7-$B$7)^2</f>
-        <v>1.5312799895370566</v>
+        <v>196.33999368097898</v>
       </c>
       <c r="M7">
-        <f t="shared" si="4"/>
-        <v>9.4233172373884084</v>
+        <f t="shared" ref="M7:T7" si="4">(D7-$B$7)^2</f>
+        <v>5.7438174127331338</v>
       </c>
       <c r="N7">
         <f t="shared" si="4"/>
-        <v>23.437113570388441</v>
+        <v>22.982708169348868</v>
       </c>
       <c r="O7">
-        <f>(G7-$B$7)^2</f>
-        <v>56.811141925603245</v>
+        <f t="shared" si="4"/>
+        <v>28.860982383582456</v>
       </c>
       <c r="P7">
         <f t="shared" si="4"/>
-        <v>65.223077356606922</v>
+        <v>23.972018395356113</v>
       </c>
       <c r="Q7">
         <f t="shared" si="4"/>
-        <v>104.02402413412615</v>
+        <v>38.040569594587488</v>
       </c>
       <c r="R7">
         <f t="shared" si="4"/>
-        <v>116.6443436927896</v>
+        <v>25.624242056996788</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="4"/>
+        <v>46.798349153306667</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="4"/>
+        <v>37.665338102499121</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>16.988146084799439</v>
+        <v>13.121509375885239</v>
       </c>
       <c r="C8">
-        <v>3.9824444264081769</v>
+        <v>4.3779332427850663</v>
       </c>
       <c r="D8">
-        <v>13.009635371160083</v>
+        <v>14.022702836827815</v>
       </c>
       <c r="E8">
-        <v>10.560937536037111</v>
+        <v>11.884060391265244</v>
       </c>
       <c r="F8">
-        <v>8.4842681586204751</v>
+        <v>12.162638270419064</v>
       </c>
       <c r="G8">
-        <v>6.1891410270586826</v>
+        <v>12.523423960636945</v>
       </c>
       <c r="H8">
-        <v>5.005387560339905</v>
+        <v>10.635343257053362</v>
       </c>
       <c r="I8">
-        <v>3.1736536437340415</v>
+        <v>12.972478532999999</v>
       </c>
       <c r="J8">
-        <v>2.3468966421634341</v>
+        <v>10.363598047782355</v>
       </c>
       <c r="K8">
+        <v>11.936793875999998</v>
+      </c>
+      <c r="L8">
         <f>(C8-$B$8)^2</f>
-        <v>169.1482756270812</v>
-      </c>
-      <c r="L8">
-        <f t="shared" ref="L8:R8" si="5">(D8-$B$8)^2</f>
-        <v>15.828547498543134</v>
+        <v>76.450123595318985</v>
       </c>
       <c r="M8">
-        <f t="shared" si="5"/>
-        <v>41.309009729283552</v>
+        <f t="shared" ref="M8:T8" si="5">(D8-$B$8)^2</f>
+        <v>0.81214965404565786</v>
       </c>
       <c r="N8">
         <f t="shared" si="5"/>
-        <v>72.315939783353841</v>
+        <v>1.5312799895370566</v>
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>116.61851023711046</v>
+        <v>0.91943379689792393</v>
       </c>
       <c r="P8">
         <f t="shared" si="5"/>
-        <v>143.58650185550763</v>
+        <v>0.35770616393272392</v>
       </c>
       <c r="Q8">
         <f t="shared" si="5"/>
-        <v>190.84020140425298</v>
+        <v>6.1810219704275573</v>
       </c>
       <c r="R8">
         <f t="shared" si="5"/>
-        <v>214.36618524148912</v>
+        <v>2.2210192131085237E-2</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="5"/>
+        <v>7.606074893678211</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="5"/>
+        <v>1.4035508156683374</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>16.988146084799439</v>
+      </c>
+      <c r="C9">
+        <v>3.9824444264081769</v>
+      </c>
+      <c r="D9">
+        <v>15.266169772013738</v>
+      </c>
+      <c r="E9">
+        <v>13.009635371160083</v>
+      </c>
+      <c r="F9">
+        <v>12.778734418604893</v>
+      </c>
+      <c r="G9">
+        <v>12.831881596019199</v>
+      </c>
+      <c r="H9">
+        <v>11.787494135900779</v>
+      </c>
+      <c r="I9">
+        <v>12.869527083000001</v>
+      </c>
+      <c r="J9">
+        <v>11.255023340153699</v>
+      </c>
+      <c r="K9">
+        <v>12.068376138000001</v>
+      </c>
+      <c r="L9">
+        <f>(C9-$B$9)^2</f>
+        <v>169.1482756270812</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ref="M9:T9" si="6">(D9-$B$9)^2</f>
+        <v>2.9652024217950386</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="6"/>
+        <v>15.828547498543134</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="6"/>
+        <v>17.719146575494744</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="6"/>
+        <v>17.274534500695665</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="6"/>
+        <v>27.046780693583429</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="6"/>
+        <v>16.963022481983398</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="6"/>
+        <v>32.868696405174305</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="6"/>
+        <v>24.204136329430941</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>8.8748295960035612</v>
+      </c>
+      <c r="C10">
+        <v>3.8003361558373761</v>
+      </c>
+      <c r="D10">
+        <v>11.418583583854351</v>
+      </c>
+      <c r="E10" s="4">
+        <v>9.4774852803210408</v>
+      </c>
+      <c r="F10">
+        <v>9.477485280321039</v>
+      </c>
+      <c r="G10">
+        <v>9.5735550482630671</v>
+      </c>
+      <c r="H10">
+        <v>8.0570065307519538</v>
+      </c>
+      <c r="I10">
+        <v>9.9038986599360932</v>
+      </c>
+      <c r="J10">
+        <v>7.4445018799005833</v>
+      </c>
+      <c r="K10">
+        <v>8.8513422728554154</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ref="L10:L18" si="7">(C10-$B$9)^2</f>
+        <v>173.91833072243037</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ref="M10:M18" si="8">(D10-$B$9)^2</f>
+        <v>31.020026451933699</v>
+      </c>
+      <c r="N10">
+        <f t="shared" ref="N10:N18" si="9">(E10-$B$9)^2</f>
+        <v>56.4100257199281</v>
+      </c>
+      <c r="O10">
+        <f t="shared" ref="O10:O18" si="10">(F10-$B$9)^2</f>
+        <v>56.410025719928129</v>
+      </c>
+      <c r="P10">
+        <f t="shared" ref="P10:P18" si="11">(G10-$B$9)^2</f>
+        <v>54.976160239085509</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" ref="Q10:Q18" si="12">(H10-$B$9)^2</f>
+        <v>79.765253733871518</v>
+      </c>
+      <c r="R10">
+        <f t="shared" ref="R10:R18" si="13">(I10-$B$9)^2</f>
+        <v>50.186561576682948</v>
+      </c>
+      <c r="S10">
+        <f t="shared" ref="S10:S18" si="14">(J10-$B$9)^2</f>
+        <v>91.081144709699515</v>
+      </c>
+      <c r="T10">
+        <f t="shared" ref="T10:T18" si="15">(K10-$B$9)^2</f>
+        <v>66.207576274066795</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>15.238590486532804</v>
+      </c>
+      <c r="C11">
+        <v>3.4494321479407306</v>
+      </c>
+      <c r="D11">
+        <v>12.759773072763434</v>
+      </c>
+      <c r="E11">
+        <v>11.630504584923537</v>
+      </c>
+      <c r="F11">
+        <v>10.405280108244826</v>
+      </c>
+      <c r="G11">
+        <v>10.531241490070888</v>
+      </c>
+      <c r="H11">
+        <v>9.4464834366629997</v>
+      </c>
+      <c r="I11">
+        <v>9.8046604125918364</v>
+      </c>
+      <c r="J11">
+        <v>8.2720273697430429</v>
+      </c>
+      <c r="K11">
+        <v>8.6875540392903616</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="7"/>
+        <v>183.29677506409226</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="8"/>
+        <v>17.87913832891444</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="9"/>
+        <v>28.704322441192502</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="10"/>
+        <v>43.334124465280318</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="11"/>
+        <v>41.691616945426667</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="12"/>
+        <v>56.876675498296329</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="13"/>
+        <v>51.602466402811913</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="14"/>
+        <v>75.970725454956366</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="15"/>
+        <v>68.899828305968569</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>19.057281708085284</v>
+      </c>
+      <c r="C12">
+        <v>3.5756982897663718</v>
+      </c>
+      <c r="D12">
+        <v>14.805250526298149</v>
+      </c>
+      <c r="E12">
+        <v>13.209076847188619</v>
+      </c>
+      <c r="F12">
+        <v>12.350875688893757</v>
+      </c>
+      <c r="G12">
+        <v>12.254282481764792</v>
+      </c>
+      <c r="H12">
+        <v>11.237877447589105</v>
+      </c>
+      <c r="I12">
+        <v>11.08889803823577</v>
+      </c>
+      <c r="J12">
+        <v>9.8351464216135014</v>
+      </c>
+      <c r="K12">
+        <v>10.305557093267282</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="7"/>
+        <v>179.89375585448738</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="8"/>
+        <v>4.7650330193246582</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="9"/>
+        <v>14.281364302656423</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="10"/>
+        <v>21.504276724743246</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="11"/>
+        <v>22.409464612136176</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="12"/>
+        <v>33.065589400084797</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="13"/>
+        <v>34.801127514885259</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="14"/>
+        <v>51.165404181538136</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="15"/>
+        <v>44.656995629746767</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>11.382040918320634</v>
+      </c>
+      <c r="C13">
+        <v>4.0771822796024386</v>
+      </c>
+      <c r="D13">
+        <v>13.305849421808475</v>
+      </c>
+      <c r="E13">
+        <v>13.211116794925807</v>
+      </c>
+      <c r="F13">
+        <v>10.940276647186577</v>
+      </c>
+      <c r="G13">
+        <v>11.067150494907967</v>
+      </c>
+      <c r="H13">
+        <v>9.6087710678706131</v>
+      </c>
+      <c r="I13">
+        <v>11.310379561942504</v>
+      </c>
+      <c r="J13">
+        <v>8.7668470834912497</v>
+      </c>
+      <c r="K13">
+        <v>10.24638702069918</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="7"/>
+        <v>166.692986379107</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="8"/>
+        <v>13.559308714274392</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="9"/>
+        <v>14.265950256563309</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="10"/>
+        <v>36.576724734411712</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="11"/>
+        <v>35.05818877551426</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="12"/>
+        <v>54.455175640473307</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="13"/>
+        <v>32.237032688074926</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="14"/>
+        <v>67.589757268911029</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="15"/>
+        <v>45.451315278378004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>15.104274581897284</v>
+      </c>
+      <c r="C14">
+        <v>3.4587749012833759</v>
+      </c>
+      <c r="D14">
+        <v>13.459419236665209</v>
+      </c>
+      <c r="E14">
+        <v>12.467779183637122</v>
+      </c>
+      <c r="F14">
+        <v>10.933483500504638</v>
+      </c>
+      <c r="G14">
+        <v>11.010020924243621</v>
+      </c>
+      <c r="H14">
+        <v>10.049038806697313</v>
+      </c>
+      <c r="I14">
+        <v>10.490322416804419</v>
+      </c>
+      <c r="J14">
+        <v>8.9871419137808743</v>
+      </c>
+      <c r="K14">
+        <v>9.5695927814791197</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="7"/>
+        <v>183.04388462135481</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="8"/>
+        <v>12.451913168743339</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="9"/>
+        <v>20.433716921123811</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="10"/>
+        <v>36.658939009659406</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="11"/>
+        <v>35.737980435270522</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="12"/>
+        <v>48.151209817009899</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="13"/>
+        <v>42.221712420356255</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="14"/>
+        <v>64.016067744656468</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="15"/>
+        <v>55.034933114204819</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>18.335676628094106</v>
+      </c>
+      <c r="C15">
+        <v>3.1973167548864674</v>
+      </c>
+      <c r="D15">
+        <v>15.065581181906564</v>
+      </c>
+      <c r="E15">
+        <v>13.469001910717852</v>
+      </c>
+      <c r="F15">
+        <v>12.251291289998868</v>
+      </c>
+      <c r="G15">
+        <v>12.320550209328353</v>
+      </c>
+      <c r="H15">
+        <v>11.285632039541142</v>
+      </c>
+      <c r="I15">
+        <v>11.321507105057236</v>
+      </c>
+      <c r="J15">
+        <v>9.9444974619206654</v>
+      </c>
+      <c r="K15">
+        <v>10.702419899114581</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="7"/>
+        <v>190.18697360678789</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="8"/>
+        <v>3.6962558058354884</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="9"/>
+        <v>12.384375717972377</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="10"/>
+        <v>22.437793347025163</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="11"/>
+        <v>21.786451256714695</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="12"/>
+        <v>32.51866643636815</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="13"/>
+        <v>32.110797326733753</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="14"/>
+        <v>49.612985922582041</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="15"/>
+        <v>39.510353681404318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>13.548594487355036</v>
+      </c>
+      <c r="C16">
+        <v>4.6052958444431669</v>
+      </c>
+      <c r="D16">
+        <v>13.377543432095067</v>
+      </c>
+      <c r="E16">
+        <v>10.354063095542697</v>
+      </c>
+      <c r="F16">
+        <v>10.961832782219087</v>
+      </c>
+      <c r="G16">
+        <v>11.149902334100105</v>
+      </c>
+      <c r="H16">
+        <v>12.592054615714327</v>
+      </c>
+      <c r="I16">
+        <v>11.411571315154738</v>
+      </c>
+      <c r="J16">
+        <v>8.3599362587828718</v>
+      </c>
+      <c r="K16">
+        <v>9.9734705533421408</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="7"/>
+        <v>153.33498007509141</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="8"/>
+        <v>13.036451515715852</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="9"/>
+        <v>44.011057108345668</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="10"/>
+        <v>36.316452020856907</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="11"/>
+        <v>34.085090092579826</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="12"/>
+        <v>19.325620204562902</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="13"/>
+        <v>31.098186161437848</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="14"/>
+        <v>74.446004801768837</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="15"/>
+        <v>49.205672811625732</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>15.746190493823983</v>
+      </c>
+      <c r="C17">
+        <v>4.1838565317597034</v>
+      </c>
+      <c r="D17">
+        <v>13.177527291318874</v>
+      </c>
+      <c r="E17">
+        <v>10.148900142784699</v>
+      </c>
+      <c r="F17">
+        <v>10.471319197712111</v>
+      </c>
+      <c r="G17">
+        <v>11.251997658136924</v>
+      </c>
+      <c r="H17">
+        <v>8.6034289686287089</v>
+      </c>
+      <c r="I17">
+        <v>10.330185035349212</v>
+      </c>
+      <c r="J17">
+        <v>7.613648963520709</v>
+      </c>
+      <c r="K17">
+        <v>9.1152074045213993</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="7"/>
+        <v>163.94983095808252</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="8"/>
+        <v>14.520815589227274</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="9"/>
+        <v>46.775285055365089</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="10"/>
+        <v>42.469032676264312</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="11"/>
+        <v>32.90339877270285</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="12"/>
+        <v>70.303481118206406</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="13"/>
+        <v>44.328445335996371</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="14"/>
+        <v>87.881196276863179</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="15"/>
+        <v>61.983163463418123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>19.438158144895944</v>
+      </c>
+      <c r="C18">
+        <v>4.1553255968406333</v>
+      </c>
+      <c r="D18">
+        <v>15.248342848053621</v>
+      </c>
+      <c r="E18">
+        <v>12.625621549733687</v>
+      </c>
+      <c r="F18">
+        <v>12.598558326832139</v>
+      </c>
+      <c r="G18">
+        <v>12.455747430575453</v>
+      </c>
+      <c r="H18">
+        <v>12.120850686489797</v>
+      </c>
+      <c r="I18">
+        <v>11.846868782710919</v>
+      </c>
+      <c r="J18">
+        <v>7.8279665970377108</v>
+      </c>
+      <c r="K18">
+        <v>10.830550099102505</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="7"/>
+        <v>164.68128167617527</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="8"/>
+        <v>3.0269153025912243</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="9"/>
+        <v>19.031620319050656</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="10"/>
+        <v>19.268480684896389</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="11"/>
+        <v>20.542637560811396</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="12"/>
+        <v>23.690564494406214</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="13"/>
+        <v>26.432732296970613</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="14"/>
+        <v>83.908888248010697</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="15"/>
+        <v>37.915988323071005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9">
-        <f>_xlfn.STDEV.S(C3:C8)</f>
-        <v>0.3292565373684368</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ref="D9:J9" si="6">_xlfn.STDEV.S(D3:D8)</f>
-        <v>1.8630497904988896</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="6"/>
-        <v>1.2254336498658529</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="6"/>
-        <v>0.98301542373172024</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="6"/>
-        <v>0.87452307208646263</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="6"/>
-        <v>0.46375408578800581</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="6"/>
-        <v>0.39393360516474923</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="6"/>
-        <v>0.19315965800648124</v>
-      </c>
-      <c r="K9">
-        <f>AVERAGE(K3:K8)/(6-1)</f>
-        <v>25.734193417886878</v>
-      </c>
-      <c r="L9">
-        <f t="shared" ref="L9:R9" si="7">AVERAGE(L3:L8)/(6-1)</f>
-        <v>2.7099705726628462</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="7"/>
-        <v>6.5753963107598796</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="7"/>
-        <v>11.141340760165352</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="7"/>
-        <v>19.025740978255847</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="7"/>
-        <v>23.070726438851555</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="7"/>
-        <v>31.513283912733726</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="7"/>
-        <v>35.209978219468255</v>
+      <c r="K19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19">
+        <f>AVERAGE(L3:L9)</f>
+        <v>125.76548787077142</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ref="M19:T19" si="16">AVERAGE(M3:M9)</f>
+        <v>4.3096600654803439</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="16"/>
+        <v>12.168737471919332</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="16"/>
+        <v>13.638576003562921</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="16"/>
+        <v>12.470576990611715</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="16"/>
+        <v>20.715380138200512</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="16"/>
+        <v>13.908569591353819</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="16"/>
+        <v>26.44559643650528</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="16"/>
+        <v>19.427550649503253</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11">
-        <v>9.8827949999999998E-3</v>
-      </c>
-      <c r="F11">
-        <v>1.235294118E-2</v>
-      </c>
-      <c r="G11">
-        <v>1.55555556E-2</v>
-      </c>
-      <c r="H11">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="I11">
-        <v>2.8965517239999999E-2</v>
-      </c>
-      <c r="J11">
-        <v>4.2000000000000003E-2</v>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E12">
-        <f>E11*D2</f>
-        <v>1.68007515</v>
-      </c>
-      <c r="F12">
-        <f>F11*E2</f>
-        <v>1.68000000048</v>
-      </c>
-      <c r="G12">
-        <f>G11*F2</f>
-        <v>1.6800000047999999</v>
-      </c>
-      <c r="H12">
-        <f>H11*G2</f>
-        <v>1.6800000000000002</v>
-      </c>
-      <c r="I12">
-        <f>I11*H2</f>
-        <v>1.6799999999199999</v>
-      </c>
-      <c r="J12">
-        <f>J11*I2</f>
-        <v>1.6800000000000002</v>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <f>B4-$B$3</f>
+        <v>-5.8703279915025544</v>
+      </c>
+      <c r="C22">
+        <f>C4-$C$3</f>
+        <v>-0.63406094150954306</v>
+      </c>
+      <c r="D22">
+        <f>D4-$D$3</f>
+        <v>-4.3497142795153465</v>
+      </c>
+      <c r="E22">
+        <f>E4-$E$3</f>
+        <v>-3.799434599905398</v>
+      </c>
+      <c r="F22">
+        <f>F4-$F$3</f>
+        <v>-3.4136259456202787</v>
+      </c>
+      <c r="G22">
+        <f>G4-G$3</f>
+        <v>-3.5003880289093416</v>
+      </c>
+      <c r="H22">
+        <f>H4-H$3</f>
+        <v>-3.4433563915855139</v>
+      </c>
+      <c r="I22">
+        <f>I4-I$3</f>
+        <v>-3.7841267562882521</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ref="J22:K22" si="17">J4-J$3</f>
+        <v>-3.4382157547154915</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="17"/>
+        <v>-3.7017564473867388</v>
+      </c>
+      <c r="L22">
+        <f>(C22-$B22)^2</f>
+        <v>27.418492618842514</v>
+      </c>
+      <c r="M22">
+        <f t="shared" ref="L22:T22" si="18">(D22-$B22)^2</f>
+        <v>2.3122660610835153</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="18"/>
+        <v>4.2885994393607731</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="18"/>
+        <v>6.0353849422421595</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="18"/>
+        <v>5.6166154262963186</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="18"/>
+        <v>5.890191146803879</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="18"/>
+        <v>4.3522355938096799</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="18"/>
+        <v>5.9151699323293707</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="18"/>
+        <v>4.7027025419488524</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13">
-        <v>9.6723548745127186</v>
-      </c>
-      <c r="F13">
-        <v>9.8644881451713662</v>
-      </c>
-      <c r="G13">
-        <v>8.3347569127024794</v>
-      </c>
-      <c r="H13">
-        <v>10.188697868999999</v>
-      </c>
-      <c r="I13">
-        <v>8.1116582685792462</v>
-      </c>
-      <c r="J13">
-        <v>9.7039007940000008</v>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <f>B5-$B$3</f>
+        <v>5.6488313756426152</v>
+      </c>
+      <c r="C23">
+        <f>C5-$C$3</f>
+        <v>0.30130687448517701</v>
+      </c>
+      <c r="D23">
+        <f>D5-$D$3</f>
+        <v>1.4250731915317374</v>
+      </c>
+      <c r="E23">
+        <f>E5-$E$3</f>
+        <v>1.2544955832842781</v>
+      </c>
+      <c r="F23">
+        <f>F5-$F$3</f>
+        <v>0.81820124296364583</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ref="G23:K23" si="19">G5-G$3</f>
+        <v>0.79092143140244708</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="19"/>
+        <v>1.1023283942606312</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="19"/>
+        <v>-0.24465182700000021</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="19"/>
+        <v>0.62908199583211299</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="19"/>
+        <v>-0.54644750999999836</v>
+      </c>
+      <c r="L23">
+        <f>(C23-$B23)^2</f>
+        <v>28.596018290479108</v>
+      </c>
+      <c r="M23">
+        <f t="shared" ref="M23:M27" si="20">(D23-$B23)^2</f>
+        <v>17.84013319784362</v>
+      </c>
+      <c r="N23">
+        <f t="shared" ref="N23:T27" si="21">(E23-$B23)^2</f>
+        <v>19.310187056001574</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="21"/>
+        <v>23.334987478746037</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="21"/>
+        <v>23.599289026347513</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="21"/>
+        <v>20.670689359715269</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="21"/>
+        <v>34.733144259830659</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="21"/>
+        <v>25.19788383610792</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="21"/>
+        <v>38.38148047088918</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <f>B6-$B$3</f>
+        <v>-3.2539242566869895</v>
+      </c>
+      <c r="C24">
+        <f>C6-$C$3</f>
+        <v>-0.26800537557042237</v>
+      </c>
+      <c r="D24">
+        <f>D6-$D$3</f>
+        <v>-2.2114923389377132</v>
+      </c>
+      <c r="E24">
+        <f>E6-$E$3</f>
+        <v>-1.9454427095737259</v>
+      </c>
+      <c r="F24">
+        <f>F6-$F$3</f>
+        <v>-1.787363306190926</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ref="G24:K24" si="22">G6-G$3</f>
+        <v>-1.6651794481228137</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="22"/>
+        <v>-1.8889340609525025</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="22"/>
+        <v>-1.4439219479999963</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="22"/>
+        <v>-1.5977723130273631</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="22"/>
+        <v>-1.6632226379999988</v>
+      </c>
+      <c r="L24">
+        <f>(C24-$B24)^2</f>
+        <v>8.9157115646084115</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="20"/>
+        <v>1.0866643031424339</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="21"/>
+        <v>1.7121239591359199</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="21"/>
+        <v>2.1508010215199174</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="21"/>
+        <v>2.5241100667396195</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="21"/>
+        <v>1.8631982344512732</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="21"/>
+        <v>3.2761083574522454</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="21"/>
+        <v>2.7428392604875582</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="21"/>
+        <v>2.5303316396934123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <f>B7-$B$3</f>
+        <v>3.4345806909884615</v>
+      </c>
+      <c r="C25">
+        <f>C7-$C$3</f>
+        <v>-0.16926130681393392</v>
+      </c>
+      <c r="D25">
+        <f>D7-$D$3</f>
+        <v>0.77840321752329622</v>
+      </c>
+      <c r="E25">
+        <f>E7-$E$3</f>
+        <v>0.61084292367409709</v>
+      </c>
+      <c r="F25">
+        <f>F7-$F$3</f>
+        <v>-0.12396840677149257</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ref="G25:K25" si="23">G7-G$3</f>
+        <v>0.19460328182031361</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="23"/>
+        <v>0.44935210572830719</v>
+      </c>
+      <c r="I25">
+        <f>I7-I$3</f>
+        <v>-0.29741350799999644</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="23"/>
+        <v>0.36724345239630551</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="23"/>
+        <v>-0.63820314599999683</v>
+      </c>
+      <c r="L25">
+        <f>(C25-$B25)^2</f>
+        <v>12.98767714512436</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="20"/>
+        <v>7.0552787705437892</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="21"/>
+        <v>7.973494978557512</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="21"/>
+        <v>12.663271681168183</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="21"/>
+        <v>10.497453611919944</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="21"/>
+        <v>8.9115897062543432</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="21"/>
+        <v>13.927780701283503</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="21"/>
+        <v>9.4085577352541527</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="21"/>
+        <v>16.587568182834428</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <f>B8-$B$3</f>
+        <v>-1.7781641861281656</v>
+      </c>
+      <c r="C26">
+        <f>C8-$C$3</f>
+        <v>-0.11344494684416606</v>
+      </c>
+      <c r="D26">
+        <f>D8-$D$3</f>
+        <v>-1.1365219422784492</v>
+      </c>
+      <c r="E26">
+        <f>E8-$E$3</f>
+        <v>-1.0453225516896545</v>
+      </c>
+      <c r="F26">
+        <f>F8-$F$3</f>
+        <v>-0.92334254971393293</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ref="G26:K26" si="24">G8-G$3</f>
+        <v>-0.72010421844103156</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="24"/>
+        <v>-1.0818551364243412</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="24"/>
+        <v>-0.59714990999999884</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="24"/>
+        <v>-0.76248086065334775</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="24"/>
+        <v>-0.89845421400000269</v>
+      </c>
+      <c r="L26">
+        <f>(C26-$B26)^2</f>
+        <v>2.7712901456422983</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="20"/>
+        <v>0.41170476909249898</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="21"/>
+        <v>0.53705686116650841</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="21"/>
+        <v>0.73072003008190667</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="21"/>
+        <v>1.1194908952220992</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="21"/>
+        <v>0.48484629269944307</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="21"/>
+        <v>1.3947947204185378</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="21"/>
+        <v>1.0316126176475848</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="21"/>
+        <v>0.77388963506173325</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <f>B9-$B$3</f>
+        <v>2.0884725227860343</v>
+      </c>
+      <c r="C27">
+        <f>C9-$C$3</f>
+        <v>-0.50893376322105555</v>
+      </c>
+      <c r="D27">
+        <f>D9-$D$3</f>
+        <v>0.10694499290747395</v>
+      </c>
+      <c r="E27">
+        <f>E9-$E$3</f>
+        <v>8.0252428205184856E-2</v>
+      </c>
+      <c r="F27">
+        <f>F9-$F$3</f>
+        <v>-0.30724640152810423</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27:K27" si="25">G9-G$3</f>
+        <v>-0.41164658305877744</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="25"/>
+        <v>7.029574242307568E-2</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="25"/>
+        <v>-0.70010135999999612</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="25"/>
+        <v>0.1289444317179953</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="25"/>
+        <v>-0.76687195199999891</v>
+      </c>
+      <c r="L27">
+        <f>(C27-$B27)^2</f>
+        <v>6.7465194145891445</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="20"/>
+        <v>3.9264513516666293</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="21"/>
+        <v>4.0329479482783164</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="21"/>
+        <v>5.7394691643168931</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="21"/>
+        <v>6.2505955434102614</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="21"/>
+        <v>4.0730375167961981</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="21"/>
+        <v>7.7761442997563579</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="21"/>
+        <v>3.8397503396847532</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="21"/>
+        <v>8.1529920696911287</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28:B36" si="26">B10-$B$3</f>
+        <v>-6.0248439660098434</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:C36" si="27">C10-$C$3</f>
+        <v>-0.69104203379185636</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28:D36" si="28">D10-$D$3</f>
+        <v>-3.7406411952519125</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" ref="E28:E36" si="29">E10-$E$3</f>
+        <v>-3.4518976626338578</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ref="F28:F36" si="30">F10-$F$3</f>
+        <v>-3.6084955398119583</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ref="G28:K28" si="31">G10-G$3</f>
+        <v>-3.6699731308149097</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="31"/>
+        <v>-3.6601918627257497</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="31"/>
+        <v>-3.6657297830639042</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="31"/>
+        <v>-3.6815770285351199</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="31"/>
+        <v>-3.9839058171445849</v>
+      </c>
+      <c r="L28">
+        <f t="shared" ref="L28:L30" si="32">(C28-$B28)^2</f>
+        <v>28.449443052132338</v>
+      </c>
+      <c r="M28">
+        <f t="shared" ref="M28:M30" si="33">(D28-$B28)^2</f>
+        <v>5.2175822979382085</v>
+      </c>
+      <c r="N28">
+        <f t="shared" ref="N28:N30" si="34">(E28-$B28)^2</f>
+        <v>6.6200526800561494</v>
+      </c>
+      <c r="O28">
+        <f t="shared" ref="O28:O30" si="35">(F28-$B28)^2</f>
+        <v>5.8387397167889965</v>
+      </c>
+      <c r="P28">
+        <f t="shared" ref="P28:P30" si="36">(G28-$B28)^2</f>
+        <v>5.5454166504516849</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" ref="Q28:Q30" si="37">(H28-$B28)^2</f>
+        <v>5.5915795695658881</v>
+      </c>
+      <c r="R28">
+        <f t="shared" ref="R28:R30" si="38">(I28-$B28)^2</f>
+        <v>5.5654197281766864</v>
+      </c>
+      <c r="S28">
+        <f t="shared" ref="S28:S30" si="39">(J28-$B28)^2</f>
+        <v>5.4908999402621692</v>
+      </c>
+      <c r="T28">
+        <f t="shared" ref="T28:T30" si="40">(K28-$B28)^2</f>
+        <v>4.1654285274935479</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="26"/>
+        <v>0.33891692451939903</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="27"/>
+        <v>-1.0419460416885018</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="28"/>
+        <v>-2.3994517063428304</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="29"/>
+        <v>-1.2988783580313612</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="30"/>
+        <v>-2.6807007118881714</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ref="G29:K29" si="41">G11-G$3</f>
+        <v>-2.7122866890070885</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="41"/>
+        <v>-2.2707149568147038</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="41"/>
+        <v>-3.764968030408161</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="41"/>
+        <v>-2.8540515386926604</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="41"/>
+        <v>-4.1476940507096387</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="32"/>
+        <v>1.9067825314444822</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="33"/>
+        <v>7.4986627584902816</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="34"/>
+        <v>2.6823733875455247</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="35"/>
+        <v>9.1180906701036424</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="36"/>
+        <v>9.3098434911970944</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="37"/>
+        <v>6.8101785560753694</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="38"/>
+        <v>16.841871723280782</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="39"/>
+        <v>10.19504760706678</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="40"/>
+        <v>20.129678043045658</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="26"/>
+        <v>4.1576081460718797</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="27"/>
+        <v>-0.91567989986286058</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="28"/>
+        <v>-0.3539742528081149</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="29"/>
+        <v>0.27969390423372076</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="30"/>
+        <v>-0.73510513123924071</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ref="G30:K30" si="42">G12-G$3</f>
+        <v>-0.98924569731318535</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="42"/>
+        <v>-0.47932094588859897</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="42"/>
+        <v>-2.4807304047642269</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="42"/>
+        <v>-1.2909324868222019</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="42"/>
+        <v>-2.5296909967327181</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="32"/>
+        <v>25.738251597024334</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="33"/>
+        <v>20.354375741883768</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="34"/>
+        <v>15.038218867051222</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="35"/>
+        <v>23.938643213976523</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="36"/>
+        <v>26.490104485167617</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="37"/>
+        <v>21.50111140386943</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="38"/>
+        <v>44.067538715516818</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="39"/>
+        <v>29.686595028297837</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="40"/>
+        <v>44.719969825355108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="26"/>
+        <v>-3.517632643692771</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="27"/>
+        <v>-0.41419591002679379</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="28"/>
+        <v>-1.8533753572977893</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="29"/>
+        <v>0.28173385197090894</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="30"/>
+        <v>-2.1457041729464201</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ref="G31:K31" si="43">G13-G$3</f>
+        <v>-2.17637768417001</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="43"/>
+        <v>-2.1084273256070905</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="43"/>
+        <v>-2.2592488810574931</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="43"/>
+        <v>-2.3592318249444535</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="43"/>
+        <v>-2.5888610693008207</v>
+      </c>
+      <c r="L31">
+        <f t="shared" ref="L31:L36" si="44">(C31-$B31)^2</f>
+        <v>9.6313195598673484</v>
+      </c>
+      <c r="M31">
+        <f t="shared" ref="M31:M36" si="45">(D31-$B31)^2</f>
+        <v>2.769752315318788</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ref="N31:N36" si="46">(E31-$B31)^2</f>
+        <v>14.435185768371712</v>
+      </c>
+      <c r="O31">
+        <f t="shared" ref="O31:O36" si="47">(F31-$B31)^2</f>
+        <v>1.8821877288444209</v>
+      </c>
+      <c r="P31">
+        <f t="shared" ref="P31:P36" si="48">(G31-$B31)^2</f>
+        <v>1.7989648664444031</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" ref="Q31:Q36" si="49">(H31-$B31)^2</f>
+        <v>1.985859628520964</v>
+      </c>
+      <c r="R31">
+        <f t="shared" ref="R31:R36" si="50">(I31-$B31)^2</f>
+        <v>1.5835296940641193</v>
+      </c>
+      <c r="S31">
+        <f t="shared" ref="S31:S36" si="51">(J31-$B31)^2</f>
+        <v>1.3418924568767723</v>
+      </c>
+      <c r="T31">
+        <f t="shared" ref="T31:T36" si="52">(K31-$B31)^2</f>
+        <v>0.86261663739850192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="26"/>
+        <v>0.20460101988387969</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="27"/>
+        <v>-1.0326032883458565</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="28"/>
+        <v>-1.6998055424410552</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="29"/>
+        <v>-0.46160375931777686</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="30"/>
+        <v>-2.1524973196283597</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ref="G32:K32" si="53">G14-G$3</f>
+        <v>-2.2335072548343557</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="53"/>
+        <v>-1.6681595867803907</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="53"/>
+        <v>-3.079306026195578</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="53"/>
+        <v>-2.1389369946548289</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="53"/>
+        <v>-3.2656553085208806</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="44"/>
+        <v>1.53067450030222</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="45"/>
+        <v>3.626764354626276</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="46"/>
+        <v>0.44382880783112794</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="47"/>
+        <v>5.5559125821313557</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="48"/>
+        <v>5.9443719592495308</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="49"/>
+        <v>3.5072322898735258</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="50"/>
+        <v>10.78404548729031</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="51"/>
+        <v>5.4921704255880321</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="52"/>
+        <v>12.042678984833287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="26"/>
+        <v>3.4360030660807013</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="27"/>
+        <v>-1.294061434742765</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="28"/>
+        <v>-9.3643597199699613E-2</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="29"/>
+        <v>0.53961896776295326</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="30"/>
+        <v>-0.8346895301341295</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ref="G33:K33" si="54">G15-G$3</f>
+        <v>-0.92297796974962409</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="54"/>
+        <v>-0.43156635393656195</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="54"/>
+        <v>-2.2481213379427611</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="54"/>
+        <v>-1.1815814465150378</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="54"/>
+        <v>-2.1328281908854194</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="44"/>
+        <v>22.373510181950351</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="45"/>
+        <v>12.458405567606468</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="46"/>
+        <v>8.3890408449879139</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="47"/>
+        <v>18.238815251364173</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="48"/>
+        <v>19.000715670728415</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="49"/>
+        <v>14.958093218652669</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="50"/>
+        <v>32.309270240415081</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="51"/>
+        <v>21.322086730964031</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="52"/>
+        <v>31.011881568562863</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="26"/>
+        <v>-1.3510790746583687</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="27"/>
+        <v>0.11391765481393445</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="28"/>
+        <v>-1.7816813470111974</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="29"/>
+        <v>-2.5753198474122012</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="30"/>
+        <v>-2.1241480379139102</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ref="G34:K34" si="55">G16-G$3</f>
+        <v>-2.093625844977872</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="55"/>
+        <v>0.87485622223662318</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="55"/>
+        <v>-2.1580571278452592</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="55"/>
+        <v>-2.7661426496528314</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="55"/>
+        <v>-2.8617775366578595</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="44"/>
+        <v>2.1462154173645449</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="45"/>
+        <v>0.18541831695541963</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="46"/>
+        <v>1.4987654696729009</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="47"/>
+        <v>0.59763562194899766</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="48"/>
+        <v>0.5513757061119251</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="49"/>
+        <v>4.9547879459629955</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="50"/>
+        <v>0.6512135783253038</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="51"/>
+        <v>2.0024049212761095</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="52"/>
+        <v>2.2822098430876268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="26"/>
+        <v>0.8465169318105783</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="27"/>
+        <v>-0.30752165786952901</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="28"/>
+        <v>-1.9816974877873896</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="29"/>
+        <v>-2.7804828001701996</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="30"/>
+        <v>-2.6146616224208863</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ref="G35:K35" si="56">G17-G$3</f>
+        <v>-1.991530520941053</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="56"/>
+        <v>-3.1137694248489947</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="56"/>
+        <v>-3.2394434076507856</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="56"/>
+        <v>-3.5124299449149943</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="56"/>
+        <v>-3.720040685478601</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="44"/>
+        <v>1.3318050664708512</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="45"/>
+        <v>7.9987968032218708</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="46"/>
+        <v>13.155127055788634</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="47"/>
+        <v>11.979756984271811</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="48"/>
+        <v>8.0545133440700223</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="49"/>
+        <v>15.683868026743955</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="50"/>
+        <v>16.695071895651225</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="51"/>
+        <v>19.000417874115623</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="52"/>
+        <v>20.853448472021828</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="26"/>
+        <v>4.5384845828825391</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="27"/>
+        <v>-0.33605259278859911</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="28"/>
+        <v>8.9118068947357187E-2</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="29"/>
+        <v>-0.30376139322121176</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="30"/>
+        <v>-0.48742249330085841</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ref="G36:K36" si="57">G18-G$3</f>
+        <v>-0.78778074850252366</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="57"/>
+        <v>0.40365229301209382</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="57"/>
+        <v>-1.7227596602890785</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="57"/>
+        <v>-3.2981123113979924</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="57"/>
+        <v>-2.0046979908974958</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="44"/>
+        <v>23.761112676999957</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="45"/>
+        <v>19.796862375327713</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="46"/>
+        <v>23.447346093092968</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="47"/>
+        <v>25.259741938430349</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="48"/>
+        <v>28.369102380314434</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="49"/>
+        <v>17.096838065355271</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="50"/>
+        <v>39.203179472649722</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="51"/>
+        <v>61.412250883447271</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="52"/>
+        <v>42.813238193818719</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="K37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L37">
+        <f>AVERAGE(L22:L36)</f>
+        <v>13.620321584189485</v>
+      </c>
+      <c r="M37">
+        <f t="shared" ref="M37:T37" si="58">AVERAGE(M22:M36)</f>
+        <v>7.5026079323160841</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="58"/>
+        <v>8.2376232811265844</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="58"/>
+        <v>10.204277201729022</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="58"/>
+        <v>10.311464208244727</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="58"/>
+        <v>8.9322067307560324</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="58"/>
+        <v>15.544089897861401</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="58"/>
+        <v>13.605305305960398</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="58"/>
+        <v>16.667340975715724</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L38">
+        <f>SQRT(SUM(L22:L36)/15-1)</f>
+        <v>3.5525091955108974</v>
+      </c>
+      <c r="M38">
+        <f t="shared" ref="M38:T38" si="59">SQRT(SUM(M22:M36)/15-1)</f>
+        <v>2.5500211631114129</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="59"/>
+        <v>2.6902831228565116</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="59"/>
+        <v>3.0338551715151172</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="59"/>
+        <v>3.0514691884803176</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="59"/>
+        <v>2.8164173573453266</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="59"/>
+        <v>3.8136714459771439</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="59"/>
+        <v>3.5503950915300115</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="59"/>
+        <v>3.9581992086952527</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="E1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DragPrediction/Data/%F.xlsx
+++ b/DragPrediction/Data/%F.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windtunnel\Documents\GitHub\NU-Python\DragPrediction\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hesham\Documents\GitHub\NU-Python\DragPrediction\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14685"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14687"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -413,10 +413,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
@@ -2426,16 +2426,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>291355</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>17435</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>34862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>33618</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>586443</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:rowOff>107078</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2456,16 +2456,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>33617</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>58520</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:rowOff>34862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>268939</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>178172</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>99608</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2755,35 +2755,35 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V29" sqref="V29"/>
+      <selection pane="bottomLeft" activeCell="T48" sqref="T48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.87890625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.87890625" customWidth="1"/>
+    <col min="11" max="11" width="16.41015625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -2794,7 +2794,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="16.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>4.2618525294977676</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>1.0846404334360637E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>68.222716075881806</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>0.22441428921042547</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>37.665338102499121</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>1.4035508156683374</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>24.204136329430941</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>66.207576274066795</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>68.899828305968569</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>44.656995629746767</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>45.451315278378004</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>55.034933114204819</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>39.510353681404318</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>49.205672811625732</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>61.983163463418123</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>37.915988323071005</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" ht="17.350000000000001" x14ac:dyDescent="0.65">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -4036,33 +4036,33 @@
         <v>19.427550649503253</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>2</v>
       </c>
       <c r="B22">
-        <f>B4-$B$3</f>
+        <f t="shared" ref="B22:B27" si="17">B4-$B$3</f>
         <v>-5.8703279915025544</v>
       </c>
       <c r="C22">
-        <f>C4-$C$3</f>
+        <f t="shared" ref="C22:C27" si="18">C4-$C$3</f>
         <v>-0.63406094150954306</v>
       </c>
       <c r="D22">
-        <f>D4-$D$3</f>
+        <f t="shared" ref="D22:D27" si="19">D4-$D$3</f>
         <v>-4.3497142795153465</v>
       </c>
       <c r="E22">
-        <f>E4-$E$3</f>
+        <f t="shared" ref="E22:E27" si="20">E4-$E$3</f>
         <v>-3.799434599905398</v>
       </c>
       <c r="F22">
-        <f>F4-$F$3</f>
+        <f t="shared" ref="F22:F27" si="21">F4-$F$3</f>
         <v>-3.4136259456202787</v>
       </c>
       <c r="G22">
@@ -4078,242 +4078,242 @@
         <v>-3.7841267562882521</v>
       </c>
       <c r="J22">
-        <f t="shared" ref="J22:K22" si="17">J4-J$3</f>
+        <f t="shared" ref="J22:K22" si="22">J4-J$3</f>
         <v>-3.4382157547154915</v>
       </c>
       <c r="K22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>-3.7017564473867388</v>
       </c>
       <c r="L22">
-        <f>(C22-$B22)^2</f>
+        <f t="shared" ref="L22:L27" si="23">(C22-$B22)^2</f>
         <v>27.418492618842514</v>
       </c>
       <c r="M22">
-        <f t="shared" ref="L22:T22" si="18">(D22-$B22)^2</f>
+        <f t="shared" ref="M22:T22" si="24">(D22-$B22)^2</f>
         <v>2.3122660610835153</v>
       </c>
       <c r="N22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>4.2885994393607731</v>
       </c>
       <c r="O22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>6.0353849422421595</v>
       </c>
       <c r="P22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>5.6166154262963186</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>5.890191146803879</v>
       </c>
       <c r="R22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>4.3522355938096799</v>
       </c>
       <c r="S22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>5.9151699323293707</v>
       </c>
       <c r="T22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>4.7027025419488524</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23">
-        <f>B5-$B$3</f>
+        <f t="shared" si="17"/>
         <v>5.6488313756426152</v>
       </c>
       <c r="C23">
-        <f>C5-$C$3</f>
+        <f t="shared" si="18"/>
         <v>0.30130687448517701</v>
       </c>
       <c r="D23">
-        <f>D5-$D$3</f>
+        <f t="shared" si="19"/>
         <v>1.4250731915317374</v>
       </c>
       <c r="E23">
-        <f>E5-$E$3</f>
+        <f t="shared" si="20"/>
         <v>1.2544955832842781</v>
       </c>
       <c r="F23">
-        <f>F5-$F$3</f>
+        <f t="shared" si="21"/>
         <v>0.81820124296364583</v>
       </c>
       <c r="G23">
-        <f t="shared" ref="G23:K23" si="19">G5-G$3</f>
+        <f t="shared" ref="G23:K23" si="25">G5-G$3</f>
         <v>0.79092143140244708</v>
       </c>
       <c r="H23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1.1023283942606312</v>
       </c>
       <c r="I23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-0.24465182700000021</v>
       </c>
       <c r="J23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.62908199583211299</v>
       </c>
       <c r="K23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-0.54644750999999836</v>
       </c>
       <c r="L23">
-        <f>(C23-$B23)^2</f>
+        <f t="shared" si="23"/>
         <v>28.596018290479108</v>
       </c>
       <c r="M23">
-        <f t="shared" ref="M23:M27" si="20">(D23-$B23)^2</f>
+        <f t="shared" ref="M23:M27" si="26">(D23-$B23)^2</f>
         <v>17.84013319784362</v>
       </c>
       <c r="N23">
-        <f t="shared" ref="N23:T27" si="21">(E23-$B23)^2</f>
+        <f t="shared" ref="N23:T27" si="27">(E23-$B23)^2</f>
         <v>19.310187056001574</v>
       </c>
       <c r="O23">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>23.334987478746037</v>
       </c>
       <c r="P23">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>23.599289026347513</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>20.670689359715269</v>
       </c>
       <c r="R23">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>34.733144259830659</v>
       </c>
       <c r="S23">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>25.19788383610792</v>
       </c>
       <c r="T23">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>38.38148047088918</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>6</v>
       </c>
       <c r="B24">
-        <f>B6-$B$3</f>
+        <f t="shared" si="17"/>
         <v>-3.2539242566869895</v>
       </c>
       <c r="C24">
-        <f>C6-$C$3</f>
+        <f t="shared" si="18"/>
         <v>-0.26800537557042237</v>
       </c>
       <c r="D24">
-        <f>D6-$D$3</f>
+        <f t="shared" si="19"/>
         <v>-2.2114923389377132</v>
       </c>
       <c r="E24">
-        <f>E6-$E$3</f>
+        <f t="shared" si="20"/>
         <v>-1.9454427095737259</v>
       </c>
       <c r="F24">
-        <f>F6-$F$3</f>
+        <f t="shared" si="21"/>
         <v>-1.787363306190926</v>
       </c>
       <c r="G24">
-        <f t="shared" ref="G24:K24" si="22">G6-G$3</f>
+        <f t="shared" ref="G24:K24" si="28">G6-G$3</f>
         <v>-1.6651794481228137</v>
       </c>
       <c r="H24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>-1.8889340609525025</v>
       </c>
       <c r="I24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>-1.4439219479999963</v>
       </c>
       <c r="J24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>-1.5977723130273631</v>
       </c>
       <c r="K24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>-1.6632226379999988</v>
       </c>
       <c r="L24">
-        <f>(C24-$B24)^2</f>
+        <f t="shared" si="23"/>
         <v>8.9157115646084115</v>
       </c>
       <c r="M24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.0866643031424339</v>
       </c>
       <c r="N24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>1.7121239591359199</v>
       </c>
       <c r="O24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>2.1508010215199174</v>
       </c>
       <c r="P24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>2.5241100667396195</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>1.8631982344512732</v>
       </c>
       <c r="R24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>3.2761083574522454</v>
       </c>
       <c r="S24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>2.7428392604875582</v>
       </c>
       <c r="T24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>2.5303316396934123</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>7</v>
       </c>
       <c r="B25">
-        <f>B7-$B$3</f>
+        <f t="shared" si="17"/>
         <v>3.4345806909884615</v>
       </c>
       <c r="C25">
-        <f>C7-$C$3</f>
+        <f t="shared" si="18"/>
         <v>-0.16926130681393392</v>
       </c>
       <c r="D25">
-        <f>D7-$D$3</f>
+        <f t="shared" si="19"/>
         <v>0.77840321752329622</v>
       </c>
       <c r="E25">
-        <f>E7-$E$3</f>
+        <f t="shared" si="20"/>
         <v>0.61084292367409709</v>
       </c>
       <c r="F25">
-        <f>F7-$F$3</f>
+        <f t="shared" si="21"/>
         <v>-0.12396840677149257</v>
       </c>
       <c r="G25">
-        <f t="shared" ref="G25:K25" si="23">G7-G$3</f>
+        <f t="shared" ref="G25:K25" si="29">G7-G$3</f>
         <v>0.19460328182031361</v>
       </c>
       <c r="H25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.44935210572830719</v>
       </c>
       <c r="I25">
@@ -4321,942 +4321,942 @@
         <v>-0.29741350799999644</v>
       </c>
       <c r="J25">
+        <f t="shared" si="29"/>
+        <v>0.36724345239630551</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="29"/>
+        <v>-0.63820314599999683</v>
+      </c>
+      <c r="L25">
         <f t="shared" si="23"/>
-        <v>0.36724345239630551</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="23"/>
-        <v>-0.63820314599999683</v>
-      </c>
-      <c r="L25">
-        <f>(C25-$B25)^2</f>
         <v>12.98767714512436</v>
       </c>
       <c r="M25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>7.0552787705437892</v>
       </c>
       <c r="N25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>7.973494978557512</v>
       </c>
       <c r="O25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>12.663271681168183</v>
       </c>
       <c r="P25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>10.497453611919944</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>8.9115897062543432</v>
       </c>
       <c r="R25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>13.927780701283503</v>
       </c>
       <c r="S25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>9.4085577352541527</v>
       </c>
       <c r="T25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>16.587568182834428</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>8</v>
       </c>
       <c r="B26">
-        <f>B8-$B$3</f>
+        <f t="shared" si="17"/>
         <v>-1.7781641861281656</v>
       </c>
       <c r="C26">
-        <f>C8-$C$3</f>
+        <f t="shared" si="18"/>
         <v>-0.11344494684416606</v>
       </c>
       <c r="D26">
-        <f>D8-$D$3</f>
+        <f t="shared" si="19"/>
         <v>-1.1365219422784492</v>
       </c>
       <c r="E26">
-        <f>E8-$E$3</f>
+        <f t="shared" si="20"/>
         <v>-1.0453225516896545</v>
       </c>
       <c r="F26">
-        <f>F8-$F$3</f>
+        <f t="shared" si="21"/>
         <v>-0.92334254971393293</v>
       </c>
       <c r="G26">
-        <f t="shared" ref="G26:K26" si="24">G8-G$3</f>
+        <f t="shared" ref="G26:K26" si="30">G8-G$3</f>
         <v>-0.72010421844103156</v>
       </c>
       <c r="H26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-1.0818551364243412</v>
       </c>
       <c r="I26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-0.59714990999999884</v>
       </c>
       <c r="J26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-0.76248086065334775</v>
       </c>
       <c r="K26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-0.89845421400000269</v>
       </c>
       <c r="L26">
-        <f>(C26-$B26)^2</f>
+        <f t="shared" si="23"/>
         <v>2.7712901456422983</v>
       </c>
       <c r="M26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.41170476909249898</v>
       </c>
       <c r="N26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0.53705686116650841</v>
       </c>
       <c r="O26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0.73072003008190667</v>
       </c>
       <c r="P26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>1.1194908952220992</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0.48484629269944307</v>
       </c>
       <c r="R26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>1.3947947204185378</v>
       </c>
       <c r="S26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>1.0316126176475848</v>
       </c>
       <c r="T26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0.77388963506173325</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>9</v>
       </c>
       <c r="B27">
-        <f>B9-$B$3</f>
+        <f t="shared" si="17"/>
         <v>2.0884725227860343</v>
       </c>
       <c r="C27">
-        <f>C9-$C$3</f>
+        <f t="shared" si="18"/>
         <v>-0.50893376322105555</v>
       </c>
       <c r="D27">
-        <f>D9-$D$3</f>
+        <f t="shared" si="19"/>
         <v>0.10694499290747395</v>
       </c>
       <c r="E27">
-        <f>E9-$E$3</f>
+        <f t="shared" si="20"/>
         <v>8.0252428205184856E-2</v>
       </c>
       <c r="F27">
-        <f>F9-$F$3</f>
+        <f t="shared" si="21"/>
         <v>-0.30724640152810423</v>
       </c>
       <c r="G27">
-        <f t="shared" ref="G27:K27" si="25">G9-G$3</f>
+        <f t="shared" ref="G27:K27" si="31">G9-G$3</f>
         <v>-0.41164658305877744</v>
       </c>
       <c r="H27">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>7.029574242307568E-2</v>
       </c>
       <c r="I27">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-0.70010135999999612</v>
       </c>
       <c r="J27">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.1289444317179953</v>
       </c>
       <c r="K27">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-0.76687195199999891</v>
       </c>
       <c r="L27">
-        <f>(C27-$B27)^2</f>
+        <f t="shared" si="23"/>
         <v>6.7465194145891445</v>
       </c>
       <c r="M27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>3.9264513516666293</v>
       </c>
       <c r="N27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>4.0329479482783164</v>
       </c>
       <c r="O27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>5.7394691643168931</v>
       </c>
       <c r="P27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>6.2505955434102614</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>4.0730375167961981</v>
       </c>
       <c r="R27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>7.7761442997563579</v>
       </c>
       <c r="S27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>3.8397503396847532</v>
       </c>
       <c r="T27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>8.1529920696911287</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>25</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28:B36" si="26">B10-$B$3</f>
+        <f t="shared" ref="B28:B36" si="32">B10-$B$3</f>
         <v>-6.0248439660098434</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28:C36" si="27">C10-$C$3</f>
+        <f t="shared" ref="C28:C36" si="33">C10-$C$3</f>
         <v>-0.69104203379185636</v>
       </c>
       <c r="D28">
-        <f t="shared" ref="D28:D36" si="28">D10-$D$3</f>
+        <f t="shared" ref="D28:D36" si="34">D10-$D$3</f>
         <v>-3.7406411952519125</v>
       </c>
-      <c r="E28" s="6">
-        <f t="shared" ref="E28:E36" si="29">E10-$E$3</f>
+      <c r="E28" s="5">
+        <f t="shared" ref="E28:E36" si="35">E10-$E$3</f>
         <v>-3.4518976626338578</v>
       </c>
       <c r="F28">
-        <f t="shared" ref="F28:F36" si="30">F10-$F$3</f>
+        <f t="shared" ref="F28:F36" si="36">F10-$F$3</f>
         <v>-3.6084955398119583</v>
       </c>
       <c r="G28">
-        <f t="shared" ref="G28:K28" si="31">G10-G$3</f>
+        <f t="shared" ref="G28:K28" si="37">G10-G$3</f>
         <v>-3.6699731308149097</v>
       </c>
       <c r="H28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>-3.6601918627257497</v>
       </c>
       <c r="I28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>-3.6657297830639042</v>
       </c>
       <c r="J28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>-3.6815770285351199</v>
       </c>
       <c r="K28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>-3.9839058171445849</v>
       </c>
       <c r="L28">
-        <f t="shared" ref="L28:L30" si="32">(C28-$B28)^2</f>
+        <f t="shared" ref="L28:L30" si="38">(C28-$B28)^2</f>
         <v>28.449443052132338</v>
       </c>
       <c r="M28">
-        <f t="shared" ref="M28:M30" si="33">(D28-$B28)^2</f>
+        <f t="shared" ref="M28:M30" si="39">(D28-$B28)^2</f>
         <v>5.2175822979382085</v>
       </c>
       <c r="N28">
-        <f t="shared" ref="N28:N30" si="34">(E28-$B28)^2</f>
+        <f t="shared" ref="N28:N30" si="40">(E28-$B28)^2</f>
         <v>6.6200526800561494</v>
       </c>
       <c r="O28">
-        <f t="shared" ref="O28:O30" si="35">(F28-$B28)^2</f>
+        <f t="shared" ref="O28:O30" si="41">(F28-$B28)^2</f>
         <v>5.8387397167889965</v>
       </c>
       <c r="P28">
-        <f t="shared" ref="P28:P30" si="36">(G28-$B28)^2</f>
+        <f t="shared" ref="P28:P30" si="42">(G28-$B28)^2</f>
         <v>5.5454166504516849</v>
       </c>
       <c r="Q28">
-        <f t="shared" ref="Q28:Q30" si="37">(H28-$B28)^2</f>
+        <f t="shared" ref="Q28:Q30" si="43">(H28-$B28)^2</f>
         <v>5.5915795695658881</v>
       </c>
       <c r="R28">
-        <f t="shared" ref="R28:R30" si="38">(I28-$B28)^2</f>
+        <f t="shared" ref="R28:R30" si="44">(I28-$B28)^2</f>
         <v>5.5654197281766864</v>
       </c>
       <c r="S28">
-        <f t="shared" ref="S28:S30" si="39">(J28-$B28)^2</f>
+        <f t="shared" ref="S28:S30" si="45">(J28-$B28)^2</f>
         <v>5.4908999402621692</v>
       </c>
       <c r="T28">
-        <f t="shared" ref="T28:T30" si="40">(K28-$B28)^2</f>
+        <f t="shared" ref="T28:T30" si="46">(K28-$B28)^2</f>
         <v>4.1654285274935479</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>26</v>
       </c>
       <c r="B29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.33891692451939903</v>
       </c>
       <c r="C29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-1.0419460416885018</v>
       </c>
       <c r="D29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-2.3994517063428304</v>
       </c>
       <c r="E29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>-1.2988783580313612</v>
       </c>
       <c r="F29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-2.6807007118881714</v>
       </c>
       <c r="G29">
-        <f t="shared" ref="G29:K29" si="41">G11-G$3</f>
+        <f t="shared" ref="G29:K29" si="47">G11-G$3</f>
         <v>-2.7122866890070885</v>
       </c>
       <c r="H29">
+        <f t="shared" si="47"/>
+        <v>-2.2707149568147038</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="47"/>
+        <v>-3.764968030408161</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="47"/>
+        <v>-2.8540515386926604</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="47"/>
+        <v>-4.1476940507096387</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="38"/>
+        <v>1.9067825314444822</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="39"/>
+        <v>7.4986627584902816</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="40"/>
+        <v>2.6823733875455247</v>
+      </c>
+      <c r="O29">
         <f t="shared" si="41"/>
-        <v>-2.2707149568147038</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="41"/>
-        <v>-3.764968030408161</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="41"/>
-        <v>-2.8540515386926604</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="41"/>
-        <v>-4.1476940507096387</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="32"/>
-        <v>1.9067825314444822</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="33"/>
-        <v>7.4986627584902816</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="34"/>
-        <v>2.6823733875455247</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="35"/>
         <v>9.1180906701036424</v>
       </c>
       <c r="P29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>9.3098434911970944</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>6.8101785560753694</v>
       </c>
       <c r="R29">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>16.841871723280782</v>
       </c>
       <c r="S29">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>10.19504760706678</v>
       </c>
       <c r="T29">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>20.129678043045658</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>27</v>
       </c>
       <c r="B30">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>4.1576081460718797</v>
       </c>
       <c r="C30">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-0.91567989986286058</v>
       </c>
       <c r="D30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-0.3539742528081149</v>
       </c>
       <c r="E30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.27969390423372076</v>
       </c>
       <c r="F30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-0.73510513123924071</v>
       </c>
       <c r="G30">
-        <f t="shared" ref="G30:K30" si="42">G12-G$3</f>
+        <f t="shared" ref="G30:K30" si="48">G12-G$3</f>
         <v>-0.98924569731318535</v>
       </c>
       <c r="H30">
+        <f t="shared" si="48"/>
+        <v>-0.47932094588859897</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="48"/>
+        <v>-2.4807304047642269</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="48"/>
+        <v>-1.2909324868222019</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="48"/>
+        <v>-2.5296909967327181</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="38"/>
+        <v>25.738251597024334</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="39"/>
+        <v>20.354375741883768</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="40"/>
+        <v>15.038218867051222</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="41"/>
+        <v>23.938643213976523</v>
+      </c>
+      <c r="P30">
         <f t="shared" si="42"/>
-        <v>-0.47932094588859897</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="42"/>
-        <v>-2.4807304047642269</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="42"/>
-        <v>-1.2909324868222019</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="42"/>
-        <v>-2.5296909967327181</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="32"/>
-        <v>25.738251597024334</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="33"/>
-        <v>20.354375741883768</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="34"/>
-        <v>15.038218867051222</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="35"/>
-        <v>23.938643213976523</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="36"/>
         <v>26.490104485167617</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>21.50111140386943</v>
       </c>
       <c r="R30">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>44.067538715516818</v>
       </c>
       <c r="S30">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>29.686595028297837</v>
       </c>
       <c r="T30">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>44.719969825355108</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>28</v>
       </c>
       <c r="B31">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>-3.517632643692771</v>
       </c>
       <c r="C31">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-0.41419591002679379</v>
       </c>
       <c r="D31">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-1.8533753572977893</v>
       </c>
       <c r="E31">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.28173385197090894</v>
       </c>
       <c r="F31">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-2.1457041729464201</v>
       </c>
       <c r="G31">
-        <f t="shared" ref="G31:K31" si="43">G13-G$3</f>
+        <f t="shared" ref="G31:K31" si="49">G13-G$3</f>
         <v>-2.17637768417001</v>
       </c>
       <c r="H31">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>-2.1084273256070905</v>
       </c>
       <c r="I31">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>-2.2592488810574931</v>
       </c>
       <c r="J31">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>-2.3592318249444535</v>
       </c>
       <c r="K31">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>-2.5888610693008207</v>
       </c>
       <c r="L31">
-        <f t="shared" ref="L31:L36" si="44">(C31-$B31)^2</f>
+        <f t="shared" ref="L31:L36" si="50">(C31-$B31)^2</f>
         <v>9.6313195598673484</v>
       </c>
       <c r="M31">
-        <f t="shared" ref="M31:M36" si="45">(D31-$B31)^2</f>
+        <f t="shared" ref="M31:M36" si="51">(D31-$B31)^2</f>
         <v>2.769752315318788</v>
       </c>
       <c r="N31">
-        <f t="shared" ref="N31:N36" si="46">(E31-$B31)^2</f>
+        <f t="shared" ref="N31:N36" si="52">(E31-$B31)^2</f>
         <v>14.435185768371712</v>
       </c>
       <c r="O31">
-        <f t="shared" ref="O31:O36" si="47">(F31-$B31)^2</f>
+        <f t="shared" ref="O31:O36" si="53">(F31-$B31)^2</f>
         <v>1.8821877288444209</v>
       </c>
       <c r="P31">
-        <f t="shared" ref="P31:P36" si="48">(G31-$B31)^2</f>
+        <f t="shared" ref="P31:P36" si="54">(G31-$B31)^2</f>
         <v>1.7989648664444031</v>
       </c>
       <c r="Q31">
-        <f t="shared" ref="Q31:Q36" si="49">(H31-$B31)^2</f>
+        <f t="shared" ref="Q31:Q36" si="55">(H31-$B31)^2</f>
         <v>1.985859628520964</v>
       </c>
       <c r="R31">
-        <f t="shared" ref="R31:R36" si="50">(I31-$B31)^2</f>
+        <f t="shared" ref="R31:R36" si="56">(I31-$B31)^2</f>
         <v>1.5835296940641193</v>
       </c>
       <c r="S31">
-        <f t="shared" ref="S31:S36" si="51">(J31-$B31)^2</f>
+        <f t="shared" ref="S31:S36" si="57">(J31-$B31)^2</f>
         <v>1.3418924568767723</v>
       </c>
       <c r="T31">
-        <f t="shared" ref="T31:T36" si="52">(K31-$B31)^2</f>
+        <f t="shared" ref="T31:T36" si="58">(K31-$B31)^2</f>
         <v>0.86261663739850192</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>29</v>
       </c>
       <c r="B32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.20460101988387969</v>
       </c>
       <c r="C32">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-1.0326032883458565</v>
       </c>
       <c r="D32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-1.6998055424410552</v>
       </c>
       <c r="E32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>-0.46160375931777686</v>
       </c>
       <c r="F32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-2.1524973196283597</v>
       </c>
       <c r="G32">
-        <f t="shared" ref="G32:K32" si="53">G14-G$3</f>
+        <f t="shared" ref="G32:K32" si="59">G14-G$3</f>
         <v>-2.2335072548343557</v>
       </c>
       <c r="H32">
+        <f t="shared" si="59"/>
+        <v>-1.6681595867803907</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="59"/>
+        <v>-3.079306026195578</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="59"/>
+        <v>-2.1389369946548289</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="59"/>
+        <v>-3.2656553085208806</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="50"/>
+        <v>1.53067450030222</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="51"/>
+        <v>3.626764354626276</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="52"/>
+        <v>0.44382880783112794</v>
+      </c>
+      <c r="O32">
         <f t="shared" si="53"/>
-        <v>-1.6681595867803907</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="53"/>
-        <v>-3.079306026195578</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="53"/>
-        <v>-2.1389369946548289</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="53"/>
-        <v>-3.2656553085208806</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="44"/>
-        <v>1.53067450030222</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="45"/>
-        <v>3.626764354626276</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="46"/>
-        <v>0.44382880783112794</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="47"/>
         <v>5.5559125821313557</v>
       </c>
       <c r="P32">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>5.9443719592495308</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>3.5072322898735258</v>
       </c>
       <c r="R32">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>10.78404548729031</v>
       </c>
       <c r="S32">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>5.4921704255880321</v>
       </c>
       <c r="T32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>12.042678984833287</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>30</v>
       </c>
       <c r="B33">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>3.4360030660807013</v>
       </c>
       <c r="C33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-1.294061434742765</v>
       </c>
       <c r="D33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-9.3643597199699613E-2</v>
       </c>
       <c r="E33">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.53961896776295326</v>
       </c>
       <c r="F33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-0.8346895301341295</v>
       </c>
       <c r="G33">
-        <f t="shared" ref="G33:K33" si="54">G15-G$3</f>
+        <f t="shared" ref="G33:K33" si="60">G15-G$3</f>
         <v>-0.92297796974962409</v>
       </c>
       <c r="H33">
+        <f t="shared" si="60"/>
+        <v>-0.43156635393656195</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="60"/>
+        <v>-2.2481213379427611</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="60"/>
+        <v>-1.1815814465150378</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="60"/>
+        <v>-2.1328281908854194</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="50"/>
+        <v>22.373510181950351</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="51"/>
+        <v>12.458405567606468</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="52"/>
+        <v>8.3890408449879139</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="53"/>
+        <v>18.238815251364173</v>
+      </c>
+      <c r="P33">
         <f t="shared" si="54"/>
-        <v>-0.43156635393656195</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="54"/>
-        <v>-2.2481213379427611</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="54"/>
-        <v>-1.1815814465150378</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="54"/>
-        <v>-2.1328281908854194</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="44"/>
-        <v>22.373510181950351</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="45"/>
-        <v>12.458405567606468</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="46"/>
-        <v>8.3890408449879139</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="47"/>
-        <v>18.238815251364173</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="48"/>
         <v>19.000715670728415</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>14.958093218652669</v>
       </c>
       <c r="R33">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>32.309270240415081</v>
       </c>
       <c r="S33">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>21.322086730964031</v>
       </c>
       <c r="T33">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>31.011881568562863</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>31</v>
       </c>
       <c r="B34">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>-1.3510790746583687</v>
       </c>
       <c r="C34">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.11391765481393445</v>
       </c>
       <c r="D34">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-1.7816813470111974</v>
       </c>
       <c r="E34">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>-2.5753198474122012</v>
       </c>
       <c r="F34">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-2.1241480379139102</v>
       </c>
       <c r="G34">
-        <f t="shared" ref="G34:K34" si="55">G16-G$3</f>
+        <f t="shared" ref="G34:K34" si="61">G16-G$3</f>
         <v>-2.093625844977872</v>
       </c>
       <c r="H34">
+        <f t="shared" si="61"/>
+        <v>0.87485622223662318</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="61"/>
+        <v>-2.1580571278452592</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="61"/>
+        <v>-2.7661426496528314</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="61"/>
+        <v>-2.8617775366578595</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="50"/>
+        <v>2.1462154173645449</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="51"/>
+        <v>0.18541831695541963</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="52"/>
+        <v>1.4987654696729009</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="53"/>
+        <v>0.59763562194899766</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="54"/>
+        <v>0.5513757061119251</v>
+      </c>
+      <c r="Q34">
         <f t="shared" si="55"/>
-        <v>0.87485622223662318</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="55"/>
-        <v>-2.1580571278452592</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="55"/>
-        <v>-2.7661426496528314</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="55"/>
-        <v>-2.8617775366578595</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="44"/>
-        <v>2.1462154173645449</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="45"/>
-        <v>0.18541831695541963</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="46"/>
-        <v>1.4987654696729009</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="47"/>
-        <v>0.59763562194899766</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="48"/>
-        <v>0.5513757061119251</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="49"/>
         <v>4.9547879459629955</v>
       </c>
       <c r="R34">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0.6512135783253038</v>
       </c>
       <c r="S34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>2.0024049212761095</v>
       </c>
       <c r="T34">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>2.2822098430876268</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>32</v>
       </c>
       <c r="B35">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.8465169318105783</v>
       </c>
       <c r="C35">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-0.30752165786952901</v>
       </c>
       <c r="D35">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-1.9816974877873896</v>
       </c>
       <c r="E35">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>-2.7804828001701996</v>
       </c>
       <c r="F35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-2.6146616224208863</v>
       </c>
       <c r="G35">
-        <f t="shared" ref="G35:K35" si="56">G17-G$3</f>
+        <f t="shared" ref="G35:K35" si="62">G17-G$3</f>
         <v>-1.991530520941053</v>
       </c>
       <c r="H35">
+        <f t="shared" si="62"/>
+        <v>-3.1137694248489947</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="62"/>
+        <v>-3.2394434076507856</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="62"/>
+        <v>-3.5124299449149943</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="62"/>
+        <v>-3.720040685478601</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="50"/>
+        <v>1.3318050664708512</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="51"/>
+        <v>7.9987968032218708</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="52"/>
+        <v>13.155127055788634</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="53"/>
+        <v>11.979756984271811</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="54"/>
+        <v>8.0545133440700223</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="55"/>
+        <v>15.683868026743955</v>
+      </c>
+      <c r="R35">
         <f t="shared" si="56"/>
-        <v>-3.1137694248489947</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="56"/>
-        <v>-3.2394434076507856</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="56"/>
-        <v>-3.5124299449149943</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="56"/>
-        <v>-3.720040685478601</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="44"/>
-        <v>1.3318050664708512</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="45"/>
-        <v>7.9987968032218708</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="46"/>
-        <v>13.155127055788634</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="47"/>
-        <v>11.979756984271811</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="48"/>
-        <v>8.0545133440700223</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="49"/>
-        <v>15.683868026743955</v>
-      </c>
-      <c r="R35">
-        <f t="shared" si="50"/>
         <v>16.695071895651225</v>
       </c>
       <c r="S35">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>19.000417874115623</v>
       </c>
       <c r="T35">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>20.853448472021828</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>33</v>
       </c>
       <c r="B36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>4.5384845828825391</v>
       </c>
       <c r="C36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-0.33605259278859911</v>
       </c>
       <c r="D36">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>8.9118068947357187E-2</v>
       </c>
       <c r="E36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>-0.30376139322121176</v>
       </c>
       <c r="F36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-0.48742249330085841</v>
       </c>
       <c r="G36">
-        <f t="shared" ref="G36:K36" si="57">G18-G$3</f>
+        <f t="shared" ref="G36:K36" si="63">G18-G$3</f>
         <v>-0.78778074850252366</v>
       </c>
       <c r="H36">
+        <f t="shared" si="63"/>
+        <v>0.40365229301209382</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="63"/>
+        <v>-1.7227596602890785</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="63"/>
+        <v>-3.2981123113979924</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="63"/>
+        <v>-2.0046979908974958</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="50"/>
+        <v>23.761112676999957</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="51"/>
+        <v>19.796862375327713</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="52"/>
+        <v>23.447346093092968</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="53"/>
+        <v>25.259741938430349</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="54"/>
+        <v>28.369102380314434</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="55"/>
+        <v>17.096838065355271</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="56"/>
+        <v>39.203179472649722</v>
+      </c>
+      <c r="S36">
         <f t="shared" si="57"/>
-        <v>0.40365229301209382</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="57"/>
-        <v>-1.7227596602890785</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="57"/>
-        <v>-3.2981123113979924</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="57"/>
-        <v>-2.0046979908974958</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="44"/>
-        <v>23.761112676999957</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="45"/>
-        <v>19.796862375327713</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="46"/>
-        <v>23.447346093092968</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="47"/>
-        <v>25.259741938430349</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="48"/>
-        <v>28.369102380314434</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="49"/>
-        <v>17.096838065355271</v>
-      </c>
-      <c r="R36">
-        <f t="shared" si="50"/>
-        <v>39.203179472649722</v>
-      </c>
-      <c r="S36">
-        <f t="shared" si="51"/>
         <v>61.412250883447271</v>
       </c>
       <c r="T36">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>42.813238193818719</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" ht="17.350000000000001" x14ac:dyDescent="0.65">
       <c r="K37" s="3" t="s">
         <v>23</v>
       </c>
@@ -5265,39 +5265,39 @@
         <v>13.620321584189485</v>
       </c>
       <c r="M37">
-        <f t="shared" ref="M37:T37" si="58">AVERAGE(M22:M36)</f>
+        <f t="shared" ref="M37:T37" si="64">AVERAGE(M22:M36)</f>
         <v>7.5026079323160841</v>
       </c>
       <c r="N37">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>8.2376232811265844</v>
       </c>
       <c r="O37">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>10.204277201729022</v>
       </c>
       <c r="P37">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>10.311464208244727</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>8.9322067307560324</v>
       </c>
       <c r="R37">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>15.544089897861401</v>
       </c>
       <c r="S37">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>13.605305305960398</v>
       </c>
       <c r="T37">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>16.667340975715724</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.5">
       <c r="K38" s="3" t="s">
         <v>24</v>
       </c>
@@ -5306,35 +5306,35 @@
         <v>3.5525091955108974</v>
       </c>
       <c r="M38">
-        <f t="shared" ref="M38:T38" si="59">SQRT(SUM(M22:M36)/15-1)</f>
+        <f t="shared" ref="M38:T38" si="65">SQRT(SUM(M22:M36)/15-1)</f>
         <v>2.5500211631114129</v>
       </c>
       <c r="N38">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>2.6902831228565116</v>
       </c>
       <c r="O38">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>3.0338551715151172</v>
       </c>
       <c r="P38">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>3.0514691884803176</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>2.8164173573453266</v>
       </c>
       <c r="R38">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>3.8136714459771439</v>
       </c>
       <c r="S38">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>3.5503950915300115</v>
       </c>
       <c r="T38">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>3.9581992086952527</v>
       </c>
     </row>
